--- a/Runtime/Editor/EditorResources/Sample.xlsx
+++ b/Runtime/Editor/EditorResources/Sample.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09520C8D-FDD8-4A84-8C45-B019817DDA05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312E737C-3812-43ED-8A9B-DE495BD21E3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="English+Chinese" sheetId="1" r:id="rId1"/>
     <sheet name="Japanese" sheetId="2" r:id="rId2"/>
+    <sheet name="Story" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="149">
   <si>
     <t>GameName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,6 +345,299 @@
   </si>
   <si>
     <t>Use “^” as TextName to inherit the prefix of the previous TextName and automatically increments the number of the suffix. This is automatic numbering function. This requires that the first of a series of automatic numbering must explicitly specify the prefix and initial suffix number. The advantage of using this function is that you don't have to manually modify TextNames to ensure that the numbers are continuous when inserting a line, deleting a line, or adjusting line orders. Your scripts can also access these lines through a loop.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextAttribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This column is optional,  see the use case in "Story" sheet.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Locations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Characters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Location.Home</t>
+  </si>
+  <si>
+    <t>Location.Home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Location.Cave</t>
+  </si>
+  <si>
+    <t>Location.Cave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Location.Forest</t>
+  </si>
+  <si>
+    <t>Location.Forest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character.Alice</t>
+  </si>
+  <si>
+    <t>Character.Alice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱丽丝</t>
+  </si>
+  <si>
+    <t>Alice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character.Bruce</t>
+  </si>
+  <si>
+    <t>Character.Bruce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bruce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布鲁斯</t>
+  </si>
+  <si>
+    <t>Dialogue0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Dialogue0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我觉得周末呆在家里非常无聊，你觉得呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常同意，我也觉得很无聊，我们出去冒险怎么样？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让我想一想……
+我们就去北方的洞穴探险吧，你觉得怎么样？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Dialogue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Dialogue2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0.Location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue1.Location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue2.Location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我觉得这个洞穴太恐怖了，你觉得呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常同意，我也觉得很恐怖，我们还是赶紧离开这里吧？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让我想一想……
+我们出去然后到东边的森林里散步，你觉得怎么样？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好主意，我早就想去那个森林了，我们走吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个森林虽然很美，但是我真的累了，你累不累呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我一点也不累，我还想再逛一逛。也许你需要多锻炼锻炼……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好吧好吧，我还是和你一起走吧。没办法，你太需要我了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I find it very boring to stay at home on weekends. What do you think?</t>
+  </si>
+  <si>
+    <t>Let me think about it …
+Let's go to the caves in the north. What do you think?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好主意，我这就去准备，然后我们一起出发！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good idea, I'll get ready and let's go together!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I think this cave is too scary. What do you think?</t>
+  </si>
+  <si>
+    <t>I agree very much, I also feel terrible, let's leave here quickly?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私はとても同意します、私も恐ろしいと感じます、すぐにここを離れましょうか？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それについて考えさせてください...
+外に出て、東の森を散歩しましょう。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let me think about it ...
+Let's go out and take a walk in the east forest. What do you think?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good idea, I already wanted to go to that forest, let's go!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いいアイデアだ、私はすでにその森に行きたかった、行こう！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この森は美しいですが、本当に疲れています。疲れていますか？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Although this forest is beautiful, I am really tired. Are you tired?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm not tired at all, and I want to stay a little longer. Maybe you need to exercise more …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私は全く疲れていません、そして私はもう少しとどまりたいです。 もっと運動する必要があるかもしれません…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不管你累不累我都要回家了，你可以一个人继续呆在这里或者立即和我一起回家。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あなたが疲れているかどうかにかかわらず、私は家に帰ります。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I will go home whether you are tired or not. You can stay here alone or go home with me immediately.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Okay okay, let me go with you. I have no choice, you need me so much!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>わかりました、わかりました、一緒に行かせてください。 私には選択の余地がありません</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この洞窟は怖すぎると思います。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いいアイデアだ、準備をして一緒に行こう！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それについて考えさせてください...
+北の洞窟に行きましょう。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strongly agree, I also feel bored. How about we go out for adventure?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>強く同意し、私も退屈だと感じています。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>週末に家にいるのはとても退屈だと思います。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アリス</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ブルース</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=magenta&gt;Horrible Cave&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=magenta&gt;恐ろしい洞窟&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=magenta&gt;恐怖的洞穴&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#4AF&gt;Boring House&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#4AF&gt;无聊的房子&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#4AF&gt;退屈な家&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0F0&gt;Beautiful Forest&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0F0&gt;美丽的森林&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0F0&gt;美しい森&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -351,7 +645,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,6 +750,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -477,7 +785,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -515,6 +823,13 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -795,241 +1110,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B27" sqref="B27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="67.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="55.875" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="24.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="67.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="55.875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="8"/>
+    <row r="4" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:3" s="7" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" s="7" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="C5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="8"/>
+    <row r="6" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:3" s="7" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="8" t="s">
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" s="7" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="C7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="8"/>
+    <row r="8" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="8" t="s">
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="10" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" s="10" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="12" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="12" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="D21" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="10" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="10" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="D23" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="B27" s="10" t="s">
+    <row r="27" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="C27" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="D27" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1044,9 +1374,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AE7C58-882C-4B75-B7CB-D99F613C0896}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B25" sqref="B25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1294,4 +1624,377 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082A904B-0B17-4915-BC1F-AA4D832D972F}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33" style="4" customWidth="1"/>
+    <col min="5" max="5" width="41.875" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="13"/>
+    </row>
+    <row r="21" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="13"/>
+    </row>
+    <row r="28" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>